--- a/testcase/Breeds_API_v1.0.xlsx
+++ b/testcase/Breeds_API_v1.0.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7395" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7395"/>
   </bookViews>
   <sheets>
     <sheet name="TestCase" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="89">
   <si>
     <t>TCID</t>
   </si>
@@ -396,27 +396,50 @@
     </r>
   </si>
   <si>
+    <t>image_id</t>
+  </si>
+  <si>
+    <t>"image_id" must be a string</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>"image_id" is required</t>
+  </si>
+  <si>
+    <t>""</t>
+  </si>
+  <si>
+    <t>"image_id" is not allowed to be empty</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">URL: </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">https://api.thecatapi.com/v1/breeds
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Method: GET</t>
+    </r>
+  </si>
+  <si>
     <t>2. Response body is returned correctly:
-- Status code: 201
-- Message: "Success"</t>
-  </si>
-  <si>
-    <t>image_id</t>
-  </si>
-  <si>
-    <t>"image_id" must be a string</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>"image_id" is required</t>
-  </si>
-  <si>
-    <t>""</t>
-  </si>
-  <si>
-    <t>"image_id" is not allowed to be empty</t>
+- Status code: 200</t>
   </si>
 </sst>
 </file>
@@ -840,9 +863,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z990"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E10" sqref="E10"/>
+      <selection pane="topRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -901,10 +924,10 @@
         <v>79</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="H2" s="7">
         <v>1</v>
@@ -2050,7 +2073,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H994"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
@@ -2099,16 +2122,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D2" s="14">
         <v>400</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F2" s="16"/>
       <c r="G2" s="11" t="str">
@@ -2124,7 +2147,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>28</v>
@@ -2133,7 +2156,7 @@
         <v>400</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="11" t="str">
@@ -2149,16 +2172,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D4" s="14">
         <v>400</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="11" t="str">
@@ -2174,7 +2197,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C5" s="15">
         <v>2</v>
@@ -2183,7 +2206,7 @@
         <v>400</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G5" s="11" t="str">
         <f t="shared" si="0"/>
